--- a/data/trans_orig/P57_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57_R-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>227544</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>204827</v>
+        <v>203151</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>251894</v>
+        <v>251319</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3024924471421232</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.272292123082787</v>
+        <v>0.270064168801802</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.334861555524016</v>
+        <v>0.3340978474099182</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>342</v>
@@ -763,19 +763,19 @@
         <v>386626</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>353976</v>
+        <v>358985</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>418619</v>
+        <v>418839</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3901451376848198</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3571984375296258</v>
+        <v>0.3622528372937385</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4224297766961835</v>
+        <v>0.4226512907514151</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>579</v>
@@ -784,19 +784,19 @@
         <v>614170</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>574204</v>
+        <v>573781</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>653437</v>
+        <v>653862</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3523211592770923</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3293946274142813</v>
+        <v>0.3291519727038423</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3748467859357429</v>
+        <v>0.3750904972567575</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>524688</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>500338</v>
+        <v>500913</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>547405</v>
+        <v>549081</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6975075528578768</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6651384444759839</v>
+        <v>0.6659021525900818</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7277078769172129</v>
+        <v>0.7299358311981982</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>547</v>
@@ -834,19 +834,19 @@
         <v>604353</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>572360</v>
+        <v>572140</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>637003</v>
+        <v>631994</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6098548623151802</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5775702233038168</v>
+        <v>0.5773487092485849</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6428015624703745</v>
+        <v>0.6377471627062615</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1070</v>
@@ -855,19 +855,19 @@
         <v>1129041</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1089774</v>
+        <v>1089349</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1169007</v>
+        <v>1169430</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6476788407229077</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6251532140642571</v>
+        <v>0.6249095027432423</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6706053725857187</v>
+        <v>0.6708480272961574</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>334477</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>303168</v>
+        <v>302932</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>372076</v>
+        <v>368938</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1618304665018988</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1466823603400687</v>
+        <v>0.1465682165787785</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1800221915802036</v>
+        <v>0.1785038131652369</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>354</v>
@@ -980,19 +980,19 @@
         <v>387113</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>351510</v>
+        <v>352101</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>421120</v>
+        <v>424955</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1956345666099392</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1776420066345297</v>
+        <v>0.1779405682333594</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2128202529636632</v>
+        <v>0.2147587661376847</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>661</v>
@@ -1001,19 +1001,19 @@
         <v>721590</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>671311</v>
+        <v>670199</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>775074</v>
+        <v>775866</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1783645406363004</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1659363392362992</v>
+        <v>0.1656615785461334</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1915849342037204</v>
+        <v>0.1917805567573354</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1732357</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1694758</v>
+        <v>1697896</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1763666</v>
+        <v>1763902</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8381695334981012</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.819977808419796</v>
+        <v>0.8214961868347631</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8533176396599311</v>
+        <v>0.8534317834212215</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1545</v>
@@ -1051,19 +1051,19 @@
         <v>1591644</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1557637</v>
+        <v>1553802</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1627247</v>
+        <v>1626656</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8043654333900607</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7871797470363369</v>
+        <v>0.7852412338623153</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8223579933654703</v>
+        <v>0.8220594317666406</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3181</v>
@@ -1072,19 +1072,19 @@
         <v>3324002</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3270518</v>
+        <v>3269726</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3374281</v>
+        <v>3375393</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8216354593636995</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8084150657962796</v>
+        <v>0.8082194432426645</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8340636607637008</v>
+        <v>0.8343384214538666</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>61210</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46771</v>
+        <v>46124</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>78138</v>
+        <v>77647</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.112325381977708</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.085829426915621</v>
+        <v>0.08464216970493453</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1433891029119402</v>
+        <v>0.1424885083468661</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -1197,19 +1197,19 @@
         <v>49650</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35804</v>
+        <v>36435</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64441</v>
+        <v>65000</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09094593251301723</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06558361452507509</v>
+        <v>0.06674025484652782</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1180406613288979</v>
+        <v>0.1190640812113282</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>101</v>
@@ -1218,19 +1218,19 @@
         <v>110860</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>92004</v>
+        <v>91155</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>133961</v>
+        <v>133631</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1016259387590315</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08434080336488177</v>
+        <v>0.08356249297731193</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1228034692014805</v>
+        <v>0.1225001821888988</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>483724</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>466796</v>
+        <v>467287</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>498163</v>
+        <v>498810</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8876746180222921</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8566108970880597</v>
+        <v>0.8575114916531339</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.914170573084379</v>
+        <v>0.9153578302950653</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>479</v>
@@ -1268,19 +1268,19 @@
         <v>496276</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>481485</v>
+        <v>480926</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>510122</v>
+        <v>509491</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9090540674869828</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8819593386711022</v>
+        <v>0.8809359187886717</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9344163854749253</v>
+        <v>0.9332597451534722</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>921</v>
@@ -1289,19 +1289,19 @@
         <v>980000</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>956899</v>
+        <v>957229</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>998856</v>
+        <v>999705</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8983740612409685</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8771965307985196</v>
+        <v>0.8774998178111013</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9156591966351183</v>
+        <v>0.9164375070226882</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>623231</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>580081</v>
+        <v>583403</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>672889</v>
+        <v>671881</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.185264905912429</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1724380008726537</v>
+        <v>0.1734252637078099</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2000265951235393</v>
+        <v>0.1997267309289495</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>740</v>
@@ -1414,19 +1414,19 @@
         <v>823389</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>772071</v>
+        <v>774553</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>875757</v>
+        <v>879342</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2342058611284957</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2196090000996944</v>
+        <v>0.2203151116834405</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2491016797642617</v>
+        <v>0.2501213469233111</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1341</v>
@@ -1435,19 +1435,19 @@
         <v>1446620</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1386478</v>
+        <v>1376408</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1522219</v>
+        <v>1511471</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2102748327467212</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2015328596233324</v>
+        <v>0.2000690979435608</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2212635633722896</v>
+        <v>0.2197014114920817</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>2740769</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2691111</v>
+        <v>2692119</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2783919</v>
+        <v>2780597</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8147350940875709</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7999734048764606</v>
+        <v>0.8002732690710507</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8275619991273462</v>
+        <v>0.82657473629219</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2571</v>
@@ -1485,19 +1485,19 @@
         <v>2692273</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2639905</v>
+        <v>2636320</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2743591</v>
+        <v>2741109</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7657941388715043</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7508983202357382</v>
+        <v>0.7498786530766889</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7803909999003052</v>
+        <v>0.7796848883165595</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5172</v>
@@ -1506,19 +1506,19 @@
         <v>5433042</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5357443</v>
+        <v>5368191</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5493184</v>
+        <v>5503254</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7897251672532788</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7787364366277103</v>
+        <v>0.7802985885079181</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7984671403766676</v>
+        <v>0.7999309020564391</v>
       </c>
     </row>
     <row r="15">
@@ -1849,19 +1849,19 @@
         <v>161295</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>140188</v>
+        <v>142468</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>180724</v>
+        <v>184150</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2828155844917976</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.245807310617366</v>
+        <v>0.2498052291156125</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3168841662413814</v>
+        <v>0.3228903355419374</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>525</v>
@@ -1870,19 +1870,19 @@
         <v>296031</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>275180</v>
+        <v>275965</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>317133</v>
+        <v>317422</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3656834515628342</v>
+        <v>0.3656834515628343</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.339926329897639</v>
+        <v>0.3408962534622211</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3917498477964694</v>
+        <v>0.3921073402019823</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>743</v>
@@ -1891,19 +1891,19 @@
         <v>457326</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>429980</v>
+        <v>428743</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>487420</v>
+        <v>485553</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3314325465583695</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3116142794721247</v>
+        <v>0.3107176658067249</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3532420223163568</v>
+        <v>0.3518891084102524</v>
       </c>
     </row>
     <row r="5">
@@ -1920,19 +1920,19 @@
         <v>409022</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>389593</v>
+        <v>386167</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>430129</v>
+        <v>427849</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7171844155082023</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6831158337586186</v>
+        <v>0.6771096644580626</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7541926893826342</v>
+        <v>0.7501947708843876</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>877</v>
@@ -1941,19 +1941,19 @@
         <v>513498</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>492396</v>
+        <v>492107</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>534349</v>
+        <v>533564</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6343165484371657</v>
+        <v>0.6343165484371658</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6082501522035304</v>
+        <v>0.6078926597980175</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6600736701023608</v>
+        <v>0.6591037465377787</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1340</v>
@@ -1962,19 +1962,19 @@
         <v>922520</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>892426</v>
+        <v>894293</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>949866</v>
+        <v>951103</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6685674534416305</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6467579776836433</v>
+        <v>0.6481108915897477</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6883857205278754</v>
+        <v>0.689282334193275</v>
       </c>
     </row>
     <row r="6">
@@ -2066,19 +2066,19 @@
         <v>245396</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>218933</v>
+        <v>215744</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>277976</v>
+        <v>276437</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1101180942765773</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09824335123392082</v>
+        <v>0.09681239934322922</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1247379049508177</v>
+        <v>0.1240475826539583</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>405</v>
@@ -2087,19 +2087,19 @@
         <v>282397</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>255633</v>
+        <v>256323</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>311061</v>
+        <v>309018</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1304723716601412</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1181066641962606</v>
+        <v>0.1184257605831455</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1437154630483585</v>
+        <v>0.1427716702723887</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>677</v>
@@ -2108,19 +2108,19 @@
         <v>527793</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>488377</v>
+        <v>488410</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>567681</v>
+        <v>572016</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.120146834552441</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1111742769633438</v>
+        <v>0.1111817651935663</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1292271028001138</v>
+        <v>0.1302139261076505</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2137,19 @@
         <v>1983081</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1950501</v>
+        <v>1952040</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2009544</v>
+        <v>2012733</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8898819057234227</v>
+        <v>0.8898819057234225</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8752620950491825</v>
+        <v>0.8759524173460416</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9017566487660792</v>
+        <v>0.9031876006567707</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2506</v>
@@ -2158,19 +2158,19 @@
         <v>1882024</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1853360</v>
+        <v>1855403</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1908788</v>
+        <v>1908098</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8695276283398589</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8562845369516414</v>
+        <v>0.8572283297276115</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8818933358037394</v>
+        <v>0.8815742394168548</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4224</v>
@@ -2179,19 +2179,19 @@
         <v>3865105</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3825217</v>
+        <v>3820882</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3904521</v>
+        <v>3904488</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8798531654475592</v>
+        <v>0.8798531654475591</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8707728971998866</v>
+        <v>0.86978607389235</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8888257230366562</v>
+        <v>0.8888182348064338</v>
       </c>
     </row>
     <row r="9">
@@ -2283,19 +2283,19 @@
         <v>63823</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48329</v>
+        <v>49226</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>80817</v>
+        <v>80063</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.0897754758412888</v>
+        <v>0.08977547584128881</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0679808444838014</v>
+        <v>0.06924285439058038</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1136796432530543</v>
+        <v>0.1126193316821659</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>87</v>
@@ -2304,19 +2304,19 @@
         <v>61565</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48864</v>
+        <v>50304</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>76328</v>
+        <v>77286</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.08401903332001782</v>
+        <v>0.08401903332001784</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06668477410797158</v>
+        <v>0.06865029185774067</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1041653778167931</v>
+        <v>0.105473666955353</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>151</v>
@@ -2325,19 +2325,19 @@
         <v>125389</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>105385</v>
+        <v>105255</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>150646</v>
+        <v>146043</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.086853724175518</v>
+        <v>0.08685372417551801</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07299748029705599</v>
+        <v>0.0729075479383106</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1043491826777438</v>
+        <v>0.101160613935672</v>
       </c>
     </row>
     <row r="11">
@@ -2354,19 +2354,19 @@
         <v>647097</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>630103</v>
+        <v>630857</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>662591</v>
+        <v>661694</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9102245241587112</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8863203567469455</v>
+        <v>0.887380668317834</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9320191555161984</v>
+        <v>0.9307571456094196</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>914</v>
@@ -2375,19 +2375,19 @@
         <v>671189</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>656426</v>
+        <v>655468</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>683890</v>
+        <v>682450</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9159809666799823</v>
+        <v>0.9159809666799822</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.895834622183207</v>
+        <v>0.8945263330446469</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9333152258920283</v>
+        <v>0.9313497081422593</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1530</v>
@@ -2396,19 +2396,19 @@
         <v>1318286</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1293029</v>
+        <v>1297632</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1338290</v>
+        <v>1338420</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9131462758244818</v>
+        <v>0.913146275824482</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.895650817322256</v>
+        <v>0.8988393860643279</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9270025197029439</v>
+        <v>0.9270924520616894</v>
       </c>
     </row>
     <row r="12">
@@ -2500,19 +2500,19 @@
         <v>470513</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>431462</v>
+        <v>431326</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>513104</v>
+        <v>512113</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1340603163063802</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1229337950072074</v>
+        <v>0.1228950081633187</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1461954670348411</v>
+        <v>0.1459129870446588</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1017</v>
@@ -2521,19 +2521,19 @@
         <v>639994</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>604021</v>
+        <v>605583</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>682048</v>
+        <v>680216</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1726584135671332</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1629537595577935</v>
+        <v>0.1633751943179901</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.184003768453761</v>
+        <v>0.1835097792163149</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1571</v>
@@ -2542,19 +2542,19 @@
         <v>1110507</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1055659</v>
+        <v>1059314</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1167332</v>
+        <v>1170296</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1538861813259512</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1462856881231814</v>
+        <v>0.1467922845880305</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1617605222989026</v>
+        <v>0.1621712901991991</v>
       </c>
     </row>
     <row r="14">
@@ -2571,19 +2571,19 @@
         <v>3039201</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2996610</v>
+        <v>2997601</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3078252</v>
+        <v>3078388</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8659396836936197</v>
+        <v>0.8659396836936196</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8538045329651582</v>
+        <v>0.8540870129553411</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8770662049927925</v>
+        <v>0.8771049918366811</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4297</v>
@@ -2592,19 +2592,19 @@
         <v>3066710</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3024656</v>
+        <v>3026488</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3102683</v>
+        <v>3101121</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8273415864328668</v>
+        <v>0.8273415864328667</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.81599623154624</v>
+        <v>0.8164902207836851</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8370462404422068</v>
+        <v>0.8366248056820098</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7094</v>
@@ -2613,19 +2613,19 @@
         <v>6105911</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6049086</v>
+        <v>6046122</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6160759</v>
+        <v>6157104</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8461138186740488</v>
+        <v>0.8461138186740487</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8382394777010975</v>
+        <v>0.8378287098008012</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8537143118768187</v>
+        <v>0.8532077154119699</v>
       </c>
     </row>
     <row r="15">
